--- a/manipulating-test-cases.xlsx
+++ b/manipulating-test-cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\CPR101-NCC\FinalProjV1\Group33_Version01\manipulating_module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\CPR101-NCC\Group33_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD428E6-E334-44C8-9516-E96893880415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2374313-5F7A-4693-A725-F64EDD1088AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
       <text>
         <r>
           <rPr>
@@ -387,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
       <text>
         <r>
           <rPr>
@@ -458,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
       <text>
         <r>
           <rPr>
@@ -629,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
       <text>
         <r>
           <rPr>
@@ -724,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
       <text>
         <r>
           <rPr>
@@ -747,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
       <text>
         <r>
           <rPr>
@@ -767,7 +767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Comments</t>
   </si>
@@ -928,12 +928,91 @@
   <si>
     <t>Recommended fix: Check input length against BUFFER_SIZE. Use strnca</t>
   </si>
+  <si>
+    <t>Michaela Cruz
+November 30, 2024</t>
+  </si>
+  <si>
+    <t>+ Ensure correct comparison when strings are equal</t>
+  </si>
+  <si>
+    <t>compare1: "Version2", compare2: "Version2"</t>
+  </si>
+  <si>
+    <t>+ Ensure correct comparison when compare1 &lt; compare2</t>
+  </si>
+  <si>
+    <t>compare1: "Computer", compare2: "Programming"</t>
+  </si>
+  <si>
+    <t>+ Ensure correct comparison when compare1 &gt; compare2</t>
+  </si>
+  <si>
+    <t>Validate special characters input</t>
+  </si>
+  <si>
+    <t>+ Ensure handling of special characters in input</t>
+  </si>
+  <si>
+    <t>compare1: "$%^", compare2: "!!!"</t>
+  </si>
+  <si>
+    <t>+ Handle comparison of numeric strings</t>
+  </si>
+  <si>
+    <t>compare1: "987", compare2: "65"</t>
+  </si>
+  <si>
+    <t>$%^' string is greater than '!!!'</t>
+  </si>
+  <si>
+    <t>compare1: "q"</t>
+  </si>
+  <si>
+    <t>Validate string comparison (numeric strings)</t>
+  </si>
+  <si>
+    <t>+ Confirm that the loop exits when the input is "q"</t>
+  </si>
+  <si>
+    <t>compare1: "Programming", compare2: "Computer"</t>
+  </si>
+  <si>
+    <t>Displays "Programming" string is greater than "Computer"</t>
+  </si>
+  <si>
+    <t>Displays "Version2" string is equal to "Version2"</t>
+  </si>
+  <si>
+    <t>Displays "Computer" string is less than "Programming"</t>
+  </si>
+  <si>
+    <t>Displays "987" string is greater than "65"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Displays "$%^' string is less than '!!!'"</t>
+  </si>
+  <si>
+    <t>Exits the loop and prints: "*** End of Comparing String Demo ***"</t>
+  </si>
+  <si>
+    <t>Validate string comparison (strings are equal)</t>
+  </si>
+  <si>
+    <t>Validate string comparison (string1 is less than string2)</t>
+  </si>
+  <si>
+    <t>Validate string comparison (string1 is greater than string2)</t>
+  </si>
+  <si>
+    <t>Recommended fix: Make sure special characters are correctly compared using their ASCII values and handle edge cases where characters might have different priorities in comparison.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1026,8 +1105,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4E0B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1290,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1269,6 +1359,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,9 +1394,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB4E0B4"/>
+      <color rgb="FFFFB4B4"/>
       <color rgb="FFFCE4D6"/>
-      <color rgb="FFFFB4B4"/>
-      <color rgb="FFB4E0B4"/>
       <color rgb="FFFF8989"/>
     </mruColors>
   </colors>
@@ -1575,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1768,123 +1867,203 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="4" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G11" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="20" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1934,14 +2113,20 @@
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
     </row>
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F1048576">
+  <conditionalFormatting sqref="F4:F14 F16:F1048576">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
